--- a/P0101/09_FICHAS/N3-FD-General.xlsx
+++ b/P0101/09_FICHAS/N3-FD-General.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1011" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D20DE45-EC4A-41CD-A2D8-5B0E3A43619C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$47</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="217">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,19 +87,656 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0101</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>Aeropuerto_P</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0101/03_OTROS/POMCA/2502_01_RioBajo_SanJorge/SIG_CartografiaPomca_SanJorge/1. Bases de Datos/Base_100k.gdb</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>La capa cartográfica " Aeropuerto_P" representa la ubicación geográfica de aeropuertos en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “punto” y está clasificada dentro de la Geodatabase en el grupo “Transporte_Aereo”. Contiene 378 elementos que están referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 22 atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del elemento.</t>
+  </si>
+  <si>
+    <t>Geodatabase</t>
+  </si>
+  <si>
+    <t>FeatureClass</t>
+  </si>
+  <si>
+    <t>MEDIO ABIÓTICO</t>
+  </si>
+  <si>
+    <t>punto</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>La información de la capa está almacenada en una carpeta vinculada al POMCA del río San Jorge; sin embargo, su distribución es a nivel nacional. Por ello, se presume que corresponde a un insumo utilizado en el POMCA, y no a un resultado generado por este.</t>
+  </si>
+  <si>
+    <t>Transporte aéreo, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000.</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>Bosque</t>
+  </si>
+  <si>
+    <t>POMCA del Río Bajo San Jorge</t>
+  </si>
+  <si>
+    <t>El shapefile 'Base_100k —Bosque' contiene 12,913 polígonos que representan áreas de bosque a esala nacional.  La información necesita un posprocesamiento para extrer los datos a escala de la región de la Mojana.  La información incluye atributos como la fecha, el proyecto, y el identificador de la cuenca.  Se requiere una descripción completa del significado de ciertas variables y una proyección de los datos a un sistema de coordenadas proyectadas para facilitar su integración en el modelo de toma de decisiones.  La conversión de SHAPE_Length y SHAPE_Area a unidades métricas también es necesaria.</t>
+  </si>
+  <si>
+    <t>MEDIO BIOTICO</t>
+  </si>
+  <si>
+    <t>Punto</t>
+  </si>
+  <si>
+    <t>La capa se encuentra a escala nacional, se requiere recortar la información al area de influencia.   Variables: Ubicación espacial de los bosques (geometría de los polígonos), área de los bosques (SHAPE_Area convertida a unidades métricas),  cuenca hidrográfica (PK_CUE)</t>
+  </si>
+  <si>
+    <t>Bosques,  cobertura forestal,  polígonos, datos geoespaciales,  modelación de inundaciones, impactos ecológicos, planificación territorial,  datos espaciales</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>Puente_P</t>
+  </si>
+  <si>
+    <t>La feature class 'Base_100k - Puente_P' contiene 3,400 puntos que representan puentes en la región de estudio. La información incluye atributos como la fecha, el proyecto, el tipo de puente ('NMG'), y el identificador de la cuenca. Se requiere una descripción completa del significado de ciertas variables y una proyección de los datos a un sistema de coordenadas proyectadas para facilitar su integración en el modelo de toma de decisiones.</t>
+  </si>
+  <si>
+    <t>Feature Class</t>
+  </si>
+  <si>
+    <t>Variables: Ubicación espacial de los puentes (geometría de los puntos), tipo de puente (NMG - requiere descripción de categorías),cuenca hidrográfica (PK_CUE)</t>
+  </si>
+  <si>
+    <t>Puentes, puntos, datos geoespaciales, modelación de inundaciones, vulnerabilidad, planificación territorial, impactos sociales, datos espaciales, infraestructura vial</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>Cienaga</t>
+  </si>
+  <si>
+    <t>La capa cartográfica " Cienaga" representa la ubicación geográfica de cuerpos de agua tipo cienaga en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “polígono” y está clasificada dentro de la Geodatabase en el grupo “Superficies de Agua”. Contiene 5271 elementos que estan referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del cuerpo de agua, "BK_MULTI" el departamento donde se encuentra ubicado. Se debe cortar el polígono para la región de La Mojana.</t>
+  </si>
+  <si>
+    <t>polígono</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>Variable: "NMG", que indica el nombre del cuerpo de agua, "BK_MULTI" el departamento donde se encuentra ubicado</t>
+  </si>
+  <si>
+    <t>Ciénaga, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000.</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>Cienaga_Anot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los elementos contenidos en "Cienaga_Anot" contienen las etiquetas necesarias para identificar las ciénagas de la capa "Cienaga".Contiene 2073 elementos en el atributo "TEXTSTRING" se encuentra el nombre de la ciénaga. </t>
+  </si>
+  <si>
+    <t>Variable: NA. Los elementos corresponden a las anotaciones o etiquetas para la capa</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>Cienaga_P</t>
+  </si>
+  <si>
+    <t>La capa cartográfica " Cienaga_P" representa la ubicación geográfica de cuerpos de agua tipo cienaga en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “punto” y está clasificada dentro de la Geodatabase en el grupo “Superficies de Agua”. Contiene 267 elementos que estan referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 22 atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del cuerpo de agua.</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>Cienaga_P_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Cienaga_P_Anot" contienen las etiquetas necesarias para identificar las ciénagas de la capa "Cienaga_P".</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>Costero_Insular</t>
+  </si>
+  <si>
+    <t>La capa cartográfica " Costero_Insular" representa la ubicación geográfica de relieves corteros en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “punto” y está clasificada dentro de la Geodatabase en el grupo “Toponimos”. Contiene 1102 elementos que están referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 20 atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del relieve y "Codigo_Nombre" que indica el tipo de relieve.</t>
+  </si>
+  <si>
+    <t>Relieve, costero insular, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000.</t>
+  </si>
+  <si>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t>Costero_Insular_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Costero_Insular_Anot" contienen las etiquetas necesarias para identificar los tipos de relieve en Colombia</t>
+  </si>
+  <si>
+    <t>Los elementos corresponden a las anotaciones o etiquetas para la capa</t>
+  </si>
+  <si>
+    <t>R0010</t>
+  </si>
+  <si>
+    <t>Curva_Nivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Curva_Nivel" representa la ubicación geográfica de las curva de nivel para Colombia identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Relieve. Contiene 101021 elementos de línea, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información sobre cada punto: "TALT" cota de la curva de nivel, "RULEID" identifica si es una curva indice o intermedia. Esta capa permite tener información del relieve. </t>
+  </si>
+  <si>
+    <t>linea</t>
+  </si>
+  <si>
+    <t>"TALT" cota de la curva de nivel, "RULEID" identifica si es una curva indice o intermedia</t>
+  </si>
+  <si>
+    <t>Curva nivel, Rio Bajo San Jorge, POMCA, puntos de control, cartografía, Colombia, relieve</t>
+  </si>
+  <si>
+    <t>R0011</t>
+  </si>
+  <si>
+    <t>Curva_Nivel_Anot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Curva_Nivel_Anot"  contiene las anotaciones de las cotas de nivel para la capa "Curva_Nivel". Contiene la identificación de 19219 elementos mediante el campo "TEXTSTRING". </t>
+  </si>
+  <si>
+    <t>R0012</t>
+  </si>
+  <si>
+    <t>Drenaje_Doble</t>
+  </si>
+  <si>
+    <t>La capa cartográfica " Drenaje_Doble" representa la ubicación geográfica de cuerpos de agua principales en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “polígono” y está clasificada dentro de la Geodatabase en el grupo “Superficies de Agua”. Contiene 2845 elementos estan referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 23 atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del cuerpo de agua, y "ESCALA", que es principalmente de 350.</t>
+  </si>
+  <si>
+    <t>Cuerpos de Agua, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000.</t>
+  </si>
+  <si>
+    <t>R0013</t>
+  </si>
+  <si>
+    <t>Drenaje_Doble_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Costero_Insular_Anot" contienen las etiquetas necesarias para identificar los tipos de drenaje doble en Colombia</t>
+  </si>
+  <si>
+    <t>R0014</t>
+  </si>
+  <si>
+    <t>Drenaje_Sencillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica " Drenaje_Sencillo" representa la ubicación geográfica de cuerpos de agua secundarios en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “linea” y está clasificada dentro de la Geodatabase en el grupo “Superficies de Agua”. Contiene 427.393 elementos estan referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del cuerpo de agua, y "BK_MULTI", que corresponde a las iniciales del departamento donde está ubicado. La capa debe cortarse para obtener información de la Región de La Mojana. </t>
+  </si>
+  <si>
+    <t>Variables: "NMG", que indica el nombre del cuerpo de agua, y "BK_MULTI", que corresponde a las iniciales del departamento donde está ubicado</t>
+  </si>
+  <si>
+    <t>Cuerpos de Agua, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000, drenaje sencillo</t>
+  </si>
+  <si>
+    <t>R0015</t>
+  </si>
+  <si>
+    <t>Embalse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Embalse" representa la ubicación geográfica de cuerpos de agua tipo Embalse en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “polígono” y está clasificada dentro de la Geodatabase en el grupo “Superficies de Agua”. Contiene 84 elementos estan referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del cuerpo de agua, y "BK_MULTI", que corresponde a las iniciales del departamento donde está ubicado. </t>
+  </si>
+  <si>
+    <t>poligono</t>
+  </si>
+  <si>
+    <t>Variable: "NMG", que indica el nombre del cuerpo de agua, y "BK_MULTI", que corresponde a las iniciales del departamento donde está ubicado</t>
+  </si>
+  <si>
+    <t>Cuerpos de Agua, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000, embalse</t>
+  </si>
+  <si>
+    <t>R0016</t>
+  </si>
+  <si>
+    <t>Hito_Limite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Hito_Limite" representa la ubicación geográfica de los hitos geográficos en Colombia identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Puntos_de_Control. Contiene 210 elementos de punto, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información sobre cada punto: "NMP" nombre del hito, "BK_MULTI" identifca las iniciales del departamento donde se ubica la estructura, "VIGENCIA" si se encuentra vigente. Esta capa permite identificar la ubicación de elementos de control cartográfico. </t>
+  </si>
+  <si>
+    <t>"NMP" nombre del hito, "BK_MULTI" identifca las iniciales del departamento donde se ubica la estructura, "VIGENCIA" si se encuentra vigente</t>
+  </si>
+  <si>
+    <t>Hito geográfico, Rio Bajo San Jorge, POMCA, puntos de control, topografía, cartografía, Colombia</t>
+  </si>
+  <si>
+    <t>R0017</t>
+  </si>
+  <si>
+    <t>Hito_Limite_Anot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Hito_Limite_Anot"  contiene las anotaciones de los nombres de los hitos greográficos de Colombia para la capa "Hito_Limite". Contiene la identificación de 211 elementos mediante el campo "TEXTSTRING". </t>
+  </si>
+  <si>
+    <t>R0018</t>
+  </si>
+  <si>
+    <t>Isla</t>
+  </si>
+  <si>
+    <t>La capa cartográfica "Isla" representa la ubicación geográfica de cuerpos de agua tipo Isla en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “polígono” y está clasificada dentro de la Geodatabase en el grupo “Superficies de Agua”. Contiene 6065 elementos que estan referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del cuerpo de agua, "BK_MULTI" el departamento donde se encuentra ubicado. Se debe cortar el polígono para la región de La Mojana.</t>
+  </si>
+  <si>
+    <t>variables:"NMG", que indica el nombre del cuerpo de agua, "BK_MULTI" el departamento donde se encuentra ubicado. Se debe cortar el polígono para la región de La Mojana.</t>
+  </si>
+  <si>
+    <t>Cuerpos de Agua, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000, isla</t>
+  </si>
+  <si>
+    <t>R0019</t>
+  </si>
+  <si>
+    <t>Isla_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Isla_Anot" contienen las etiquetas necesarias para identificar las lagunas en Colombia.</t>
+  </si>
+  <si>
+    <t>R0020</t>
+  </si>
+  <si>
+    <t>Madrevieja_L</t>
+  </si>
+  <si>
+    <t>La capa cartográfica "Madrevieja_L" representa la ubicación geográfica de meandros o antiguos brazos de agua en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “línea” y está clasificada dentro de la Geodatabase en el grupo “Superficies de Agua”. Contiene 510 elementos que están referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 22 atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del cuerpo de agua, y "FECHA", que registra la fecha en la que fue inventariado.</t>
+  </si>
+  <si>
+    <t>línea</t>
+  </si>
+  <si>
+    <t>Madrevieja, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000.</t>
+  </si>
+  <si>
+    <t>R0021</t>
+  </si>
+  <si>
+    <t>Madrevieja_L_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Madrevieja_L_Anot" contienen las etiquetas necesarias para identificar las Madrevieja en Colombia.</t>
+  </si>
+  <si>
+    <t>R0022</t>
+  </si>
+  <si>
+    <t>Madrevieja_R</t>
+  </si>
+  <si>
+    <t>La capa cartográfica "Madrevieja_R" representa la ubicación geográfica de meandros o antiguos brazos de agua en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “polígono” y está clasificada dentro de la Geodatabase en el grupo “Superficies de Agua”. Contiene 408 elementos que están referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 22 atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del cuerpo de agua, y "FECHA", que registra la fecha en la que fue inventariado.</t>
+  </si>
+  <si>
+    <t>R0023</t>
+  </si>
+  <si>
+    <t>Madrevieja_R_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Madrevieja_R_Anot" contienen las etiquetas necesarias para identificar las Madrevieja en Colombia.</t>
+  </si>
+  <si>
+    <t>R0024</t>
+  </si>
+  <si>
+    <t>Orografia</t>
+  </si>
+  <si>
+    <t>La capa cartográfica "Orografia" representa la ubicación geográfica de tipos de relieves en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “punto” y está clasificada dentro de la Geodatabase en el grupo “Toponimos”. Contiene 13489 elementos que están referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 22 atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del relieve "Codigo_Nombre" que indica el tipo de relieve.</t>
+  </si>
+  <si>
+    <t>Relieve, orografía, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000.</t>
+  </si>
+  <si>
+    <t>R0025</t>
+  </si>
+  <si>
+    <t>Orografia_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Orografia_Anot" contienen las etiquetas necesarias para identificar los tipos de relieve en Colombia</t>
+  </si>
+  <si>
+    <t>R0026</t>
+  </si>
+  <si>
+    <t>Pista_Aterrizaje_L</t>
+  </si>
+  <si>
+    <t>La capa cartográfica " Pista_Aterrizaje_L" representa la ubicación geográfica de pistas de aterrizaje aereo en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “punto” y está clasificada dentro de la Geodatabase en el grupo “Transporte_Aereo”. Contiene 252 elementos que están referenciados en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 22 atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del elemento</t>
+  </si>
+  <si>
+    <t>R0027</t>
+  </si>
+  <si>
+    <t>Pista_Aterrizaje_L_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Pista_Aterrizaje_L__Anot" contienen las etiquetas necesarias para identificar los tipos de transporte aereo en Colombia</t>
+  </si>
+  <si>
+    <t>R0028</t>
+  </si>
+  <si>
+    <t>Pista_Aterrizaje_R</t>
+  </si>
+  <si>
+    <t>La capa cartográfica " Pista_Aterrizaje_R" representa la ubicación geográfica de pistas de aterrizaje aereo en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “polígono” y está clasificada dentro de la Geodatabase en el grupo “Transporte_Aereo”. Contiene 293 elementos está referenciada en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 22 atributos, algunos de los cuales incluyen información específica, como "NMG", que indica el nombre del elemento</t>
+  </si>
+  <si>
+    <t>R0029</t>
+  </si>
+  <si>
+    <t>Pista_Aterrizaje_R_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Pista_Aterrizaje_R_Anot" contienen las etiquetas necesarias para identificar los tipos de transporte aereo en Colombia</t>
+  </si>
+  <si>
+    <t>R0030</t>
+  </si>
+  <si>
+    <t>Puente_L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Puente_L" representa la ubicación geográfica de Puentes en Colombia identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Instalaciones_Contrucciones_Para_Transporte. Contiene 895 elementos de Línea, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información sobre cada línea: "NMG" Nombre del elemento, "BK_MULTI" identifca las iniciales del departamento donde se ubica la estructura, "VIGENCIA" si se encuentra vigente, "SHAPE_Length" Longitud de la línea. Esta capa permite identificar la ubicación de elementos de para el transporte como puentes. </t>
+  </si>
+  <si>
+    <t>"NMG" Nombre del elemento, "BK_MULTI" identifca las iniciales del departamento donde se ubica la estructura, "VIGENCIA" si se encuentra vigente, "SHAPE_Length" Longitud de la línea</t>
+  </si>
+  <si>
+    <t>Puente, Rio Bajo San Jorge, POMCA, contrucciones para transporte</t>
+  </si>
+  <si>
+    <t>R0031</t>
+  </si>
+  <si>
+    <t>Puente_L_Anot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Puente_L_Anot"  contiene las anotaciones de los nombres de los puentes de Colombia para la capa "Puente_L". Contiene la identificación de 30 elementos mediante el campo "TEXTSTRING". </t>
+  </si>
+  <si>
+    <t>R0032</t>
+  </si>
+  <si>
+    <t>Puente_P_Anot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Puente_P_Anot"  contiene las anotaciones de los nombres de los puentes de Colombia para la capa "Puente_P". Contiene la identificación de 30 elementos mediante el campo "TEXTSTRING". </t>
+  </si>
+  <si>
+    <t>R0033</t>
+  </si>
+  <si>
+    <t>Punto_Aerotriangulacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Punto_Aerotriangulacion" contiene la ubicación geográfica de los puntos de aerotriangulación   geográficos en Colombia identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Puntos_de_Control. Contiene 2 elementos de punto, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos no proporciona información de detalle. Esta capa permite identificar la ubicación de elementos de control cartográfico. </t>
+  </si>
+  <si>
+    <t>No proporciona detalle de la capa, sin embargo la capa es importante para la ubicación de elementos</t>
+  </si>
+  <si>
+    <t>Punto aerotriangulación, Rio Bajo San Jorge, POMCA, puntos de control, cartografía, Colombia</t>
+  </si>
+  <si>
+    <t>R0034</t>
+  </si>
+  <si>
+    <t>Punto_Cota_Fotogrametrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Punto_Cota_Fotogrametrica" representa la ubicación geográfica de las cotas fotogramétricas de control en Colombia identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Puntos_de_Control. Contiene 45 elementos de punto, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información sobre cada punto: PROYECTO" nombre de la cota, "TALT" valor de la cota, "BK_MULTI" identifca las iniciales del departamento donde se ubica la cota, "VIGENCIA" si se encuentra vigente. Esta capa permite identificar la ubicación de elementos de control cartográfico. </t>
+  </si>
+  <si>
+    <t>"PROYECTO" nombre de la cota, "TALT" valor de la cota, "BK_MULTI" identifca las iniciales del departamento donde se ubica la cota, "VIGENCIA" si se encuentra vigente</t>
+  </si>
+  <si>
+    <t>Cota fotogramétrica, Rio Bajo San Jorge, POMCA, puntos de control, topografía, cartografía, Colombia</t>
+  </si>
+  <si>
+    <t>R0035</t>
+  </si>
+  <si>
+    <t>Punto_Cota_fotogrametrica_Anot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Punto_Cota_fotogrametrica_Anot"  contiene las anotaciones de los nombres de los hitos greográficos de Colombia para la capa "Punto_Cota_fotogrametrica". Contiene la identificación de 28 elementos mediante el campo "TEXTSTRING". </t>
+  </si>
+  <si>
+    <t>R0036</t>
+  </si>
+  <si>
+    <t>Punto_Estereoscopico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Punto_Estereoscopico" contiene la ubicación geográfica de  los Puntos estereoscopicos para referenciación geográfica en Colombia identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Puntos_de_Control. Contiene 18 elementos de punto, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información de "NMP" Nombre del punto de control, "TALT" Altitud del punto, "BK_MULTI" identifca las iniciales del departamento donde se ubica el punto. Esta capa permite identificar la ubicación de elementos de control cartográfico. </t>
+  </si>
+  <si>
+    <t>"NMP" Nombre del punto de control, "TALT" Altitud del punto, "BK_MULTI" identifca las iniciales del departamento donde se ubica el punto</t>
+  </si>
+  <si>
+    <t>Punto estereoscopico, Rio Bajo San Jorge, POMCA, puntos de control, cartografía, Colombia</t>
+  </si>
+  <si>
+    <t>R0037</t>
+  </si>
+  <si>
+    <t>Punto_Estereoscopico_Anot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Punto_Estereoscopico_Anot"  contiene las anotaciones de los nombres de los puntos Estereoscopicos de Colombia para la capa "Punto_Estereoscopico". Contiene la identificación de 5 elementos mediante el campo "TEXTSTRING". </t>
+  </si>
+  <si>
+    <t>R0038</t>
+  </si>
+  <si>
+    <t>Punto_Geodesico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Punto_Geodesico" representa la ubicación geográfica de los Puntos Geodésicos para Colombia identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Puntos_de_Control. Contiene 890 elementos de punto, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información sobre cada punto: "NMP" nombre del punto, "PROYECTO" nombre de identificación de grupo, "BK_MULTI" identifca las iniciales del departamento donde se ubica el punto. Esta capa permite identificar la ubicación de elementos de control cartográfico. </t>
+  </si>
+  <si>
+    <t>"NMP" nombre del punto, "PROYECTO" nombre de identificación de grupo, "BK_MULTI" identifca las iniciales del departamento donde se ubica el punto</t>
+  </si>
+  <si>
+    <t>Punto geodésico, Rio Bajo San Jorge, POMCA, puntos de control, cartografía, Colombia</t>
+  </si>
+  <si>
+    <t>R0039</t>
+  </si>
+  <si>
+    <t>Punto_Geodesico_Anot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Punto_Geodesico_Anot"  contiene las anotaciones de los nombres de los geodésicos de Colombia para la capa "Punto_Geodesico". Contiene la identificación de 288 elementos mediante el campo "TEXTSTRING" nombre del punto, "STATUS" diferenciado como placed o unplaced. </t>
+  </si>
+  <si>
+    <t>Punto geodésico, Rio Bajo San Jorge, POMCA, puntos de control, topografía, cartografía, Colombia</t>
+  </si>
+  <si>
+    <t>R0040</t>
+  </si>
+  <si>
+    <t>Punto_Nivelacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Punto_Nivelacion" representa la ubicación geográfica de los puntos de nivelación en Valle del Cauca y Chocó, identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Puntos_de_Control. Contiene 16 elementos de punto, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información sobre cada punto:"NMP" nombre del punto, "TALT" valor de la cota, "BK_MULTI" identifca las iniciales del departamento donde se ubica el punto. Esta capa permite identificar la ubicación de elementos de control cartográfico. </t>
+  </si>
+  <si>
+    <t>"NMP" nombre del punto, "TALT" valor de la cota, "BK_MULTI" identifca las iniciales del departamento donde se ubica el punto</t>
+  </si>
+  <si>
+    <t>Punto nivelación, Rio Bajo San Jorge, POMCA, puntos de control, cartografía, Colombia</t>
+  </si>
+  <si>
+    <t>R0041</t>
+  </si>
+  <si>
+    <t>Punto_Topografico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Punto_Topografico" representa la ubicación geográfica de los Puntos topográficos identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Puntos_de_Control. Contiene 3 elementos de punto, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información sobre cada punto: "NMP" nombre del punto. Esta capa permite identificar la ubicación de elementos de control cartográfico. </t>
+  </si>
+  <si>
+    <t>"NMP" nombre del punto.</t>
+  </si>
+  <si>
+    <t>Punto topográfico, Rio Bajo San Jorge, POMCA, puntos de control, cartografía, Colombia</t>
+  </si>
+  <si>
+    <t>R0042</t>
+  </si>
+  <si>
+    <t>Red_Alta_Tension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Red_Alta_Tension" representa la ubicación geográfica de las redes de Alta Tensión identificadas en el POMCA del Río Bajo San Jorge, para Colombia. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Instalaciones_Contrucciones_Para_Transporte. Contiene 213 elementos de Línea, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información sobre cada línea: "RULEID" Tipo de red en este caso todas Red de Alta Tension, "BK_MULTI" identifca las iniciales del departamento donde se ubica la linea de red, "VIGENCIA" si se encuentra vigente la linea de red, "SHAPE_Length" Longitud de la línea. Esta capa permite identificar la ubicación de elementos de conducción de energía. </t>
+  </si>
+  <si>
+    <t>"RULEID" Tipo de red en este caso todas Red de Alta Tension, "BK_MULTI" identifca las iniciales del departamento donde se ubica la linea de red, "VIGENCIA" si se encuentra vigente la linea de red, "SHAPE_Length" Longitud de la línea</t>
+  </si>
+  <si>
+    <t>Red de alta tensión, Rio Bajo San Jorge, POMCA, contrucciones para transporte</t>
+  </si>
+  <si>
+    <t>R0043</t>
+  </si>
+  <si>
+    <t>Tuberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica "Tubería" representa la ubicación geográfica de las tuberías DE OLEODUCTOS Y ACUEDUCTOS identificadas en el POMCA del Río Bajo San Jorge, para Colombia. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Instalaciones_Contrucciones_Para_Transporte. Contiene 82 elementos de Línea, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información detallada sobre cada línea: "NMG" Nombre de la tubería, "BK_MULTI" identifca las iniciales del departamento donde se ubica la tubería, "VIGENCIA" si se enceuntra vigente la tubería, "SHAPE_Length" Longitud de la tubería. Esta capa permite identificar la ubicación de elementos de conducción. </t>
+  </si>
+  <si>
+    <t>"NMG" Nombre de la tubería, "BK_MULTI" identifca las iniciales del departamento donde se ubica la tubería, "VIGENCIA" si se enceuntra vigente la tubería, "SHAPE_Length" Longitud de la tubería</t>
+  </si>
+  <si>
+    <t>Acueducto, oleoducto, Rio Bajo San Jorge, POMCA, contrucciones para transporte</t>
+  </si>
+  <si>
+    <t>R0044</t>
+  </si>
+  <si>
+    <t>Tunel</t>
+  </si>
+  <si>
+    <t>La capa cartográfica "Tunel" representa la ubicación geográfica de Tueneles en Colombia identificados en el POMCA del Río Bajo San Jorge. Esta capa se encuentra clasificada dentro de la Geodatabase en el grupo de Instalaciones_Contrucciones_Para_Transporte. Contiene 28 elementos de Línea, en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686.  La tabla de atributos proporciona información sobre cada línea: "PROYECTO" nombre del túnel, "BK_MULTI" identifca las iniciales del departamento donde se ubica la estructura, "VIGENCIA" si se encuentra vigente, "SHAPE_Length" Longitud de la línea. Esta capa permite identificar la ubicación de elementos de para el transporte como túneles.</t>
+  </si>
+  <si>
+    <t>"PROYECTO" nombre del túnel, "BK_MULTI" identifca las iniciales del departamento donde se ubica la estructura, "VIGENCIA" si se encuentra vigente, "SHAPE_Length" Longitud de la línea</t>
+  </si>
+  <si>
+    <t>R0045</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>La capa cartográfica " Via" representa la ubicación geográfica de vías terrestre de hasta sexto grado en Colombia, los cuales podrían haber sido considerados en el POMCA del Río Bajo San Jorge. Es de tipo “línea” y está clasificada dentro de la Geodatabase en el grupo “Transporte_Terrestre”. Contiene 109,162 elementos está referenciada en el sistema de coordenadas proyectado MAGNA-SIRGAS EPSG:4686. La capa cuenta con 26 atributos, algunos de los cuales incluyen información específica, como "Tipo_Via", que indica el grado de vía de 1 a 6 a la corresponde y "TEDS" que muestra si esta pavimentada o no.</t>
+  </si>
+  <si>
+    <t>Vía, Rio Bajo San Jorge, POMCA, cartografía base, escala 100,000.</t>
+  </si>
+  <si>
+    <t>R0046</t>
+  </si>
+  <si>
+    <t>Via_Anot</t>
+  </si>
+  <si>
+    <t>Los elementos contenidos en "Via_Anot" contienen las etiquetas necesarias para identificar las vias en Colombia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,7 +747,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -115,31 +755,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,18 +1049,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,10 +1084,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -481,43 +1124,2312 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q47" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q47">
+      <sortCondition ref="D1:D47"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>